--- a/biology/Zoologie/Eleutherodactylus_maestrensis/Eleutherodactylus_maestrensis.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_maestrensis/Eleutherodactylus_maestrensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus maestrensis est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus maestrensis est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Granma à Cuba[1]. Elle se rencontre dans la Sierra Maestra, entre 900 et 1 440 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Granma à Cuba. Elle se rencontre dans la Sierra Maestra, entre 900 et 1 440 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus maestrensis[2] mesure jusqu'à 19 mm pour les mâles et jusqu'à 32,5 mm pour les femelles. Son dos est brun, gris brun ou fauve clair et généralement plus sombre dans sa partie médiane. Sa face ventrale et la face interne de ses membres est orange plus ou moins intense.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus maestrensis mesure jusqu'à 19 mm pour les mâles et jusqu'à 32,5 mm pour les femelles. Son dos est brun, gris brun ou fauve clair et généralement plus sombre dans sa partie médiane. Sa face ventrale et la face interne de ses membres est orange plus ou moins intense.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de maestr[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Díaz, Cádiz &amp; Navarro, 2005, « A New Ground-dwelling Frog of the Genus Eleutherodactylus (Anura:Leptodacylidae) from Eastern Cuba, and a Reconsideration of the E. dimidiatus Group », Caribbean Journal of Science, vol. 41, no 2 p. 307-318 (texte intégral).</t>
         </is>
